--- a/pred_ohlcv/54_21/2019-10-26 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ZRX ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>112736.1002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>65566.78330000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>64157.58200000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>65110.90860000002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>72952.91450000003</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>64838.16590000003</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>79038.19570737708</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>75998.85080737708</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>75684.82860737707</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>76857.93130737706</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>76857.93130737706</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>78179.48230737707</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>78179.48230737707</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>77192.63240737707</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>77192.63240737707</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>77715.71830737707</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>77715.71830737707</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>77672.04160737708</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>66964.35190737709</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>72345.39700737709</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>72345.39700737709</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>65414.64530737709</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>36506.64820737709</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-421980.3826746673</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-412970.7928746673</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-401623.3812746673</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-401623.3812746673</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-403842.3558746673</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-403842.3558746673</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-417001.7008746673</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-397625.5340299379</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-1186029.005514164</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-1186029.005514164</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-1186019.437814164</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-1184028.857614164</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1184028.857614164</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1176633.147986578</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-1183996.920586578</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-1201434.594886578</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-1201434.594886578</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-1201751.859886578</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-1201423.939086578</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-1219278.258586578</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-1219278.258586578</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1206143.389086578</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-1183695.595986578</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-1167855.103613983</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-1169498.801313983</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-1169498.801313983</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-1162633.714836302</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-1162513.714936302</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-1162473.714836302</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1165515.511236302</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1166103.424336302</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-1162660.609236302</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-1162984.269036302</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-1162893.011536302</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-1208410.234936302</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-1180313.933136302</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-1180313.933136302</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-1180213.619036302</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1182371.769036302</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1198953.081136302</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-1198263.149736302</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1198624.093736302</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-1200400.634336302</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-1200399.634336302</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-1200302.732602197</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-1200352.732602197</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-1201833.734002197</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-1206833.734002197</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-1206833.734002197</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-1191944.954902197</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-1193143.398502198</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-1193142.398502198</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1193142.398502198</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-1199236.201902198</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-1199236.201902198</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ZRX ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>112736.1002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>112736.1002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>65566.78330000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>64157.58200000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>64589.95950000003</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>64704.76680000003</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>65110.90860000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>72952.91450000003</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>64838.16590000003</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>79038.19570737708</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>75684.15000737707</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>75998.85080737708</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>75684.82860737707</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>75886.21390737707</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>76857.93130737706</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>76857.93130737706</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>78179.48230737707</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>78179.48230737707</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>77192.63240737707</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>77192.63240737707</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>77746.84240737707</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>77715.71830737707</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>77715.71830737707</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>77672.04160737708</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>62079.24030737708</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>63888.91700737708</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>69435.39710737708</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>66964.35190737709</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>72345.39700737709</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>72345.39700737709</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>65414.64530737709</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>36506.64820737709</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>36467.51000737709</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>35797.46230737709</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-421980.3826746673</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-412970.7928746673</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-401623.3812746673</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-401623.3812746673</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-403842.3558746673</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-403842.3558746673</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-417001.7008746673</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-397625.5340299379</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-1186029.005514164</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-1186029.005514164</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-1186029.005514164</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-1186019.437814164</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-1186028.857614164</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-1184028.857614164</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1184028.857614164</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-1176255.304614164</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-1176702.725514164</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-1176690.147986578</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1176633.147986578</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1176633.147986578</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1178289.364086578</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-1178229.461586578</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-1175418.448086578</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-1175418.448086578</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-1175418.448086578</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-1183952.944086578</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-1182471.944086578</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-1184120.979386578</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-1185431.920586578</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-1183996.920586578</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-1184931.529686578</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-1183749.590286578</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-1183749.590286578</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-1183211.590286578</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-1187947.375986578</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1200973.849286578</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-1200973.849286578</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-1201434.594886578</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-1201434.594886578</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-1201751.859886578</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-1201423.939086578</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-1219278.258586578</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-1219278.258586578</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1217770.192586578</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1206143.389086578</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1206209.389086578</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1206209.389086578</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-1183695.595986578</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-1167855.103613983</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-1169498.801313983</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-1169498.801313983</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-1162633.714836302</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-1162513.714936302</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-1162473.714836302</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-1161862.700536302</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1165515.511236302</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1162669.304836302</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-1162893.011536302</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-1205710.608036302</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-1180313.933136302</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-1180313.933136302</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-1180213.619036302</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1183610.417336302</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1184410.884136302</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1198953.081136302</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-1198263.149736302</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1198624.093736302</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-1199487.647636302</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-1197956.591036302</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-1200400.634336302</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-1200399.634336302</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-1200302.732602197</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-1200352.732602197</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-1201914.417702197</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-1201912.417702197</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-1201833.734002197</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-1206833.734002197</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-1206833.734002197</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-1191944.954902197</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-1193143.398502198</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-1193142.398502198</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1193142.398502198</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-1199236.201902198</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-1199236.201902198</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-1199236.201902198</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
